--- a/bahan/Waktu Penelitian Skripsi.xlsx
+++ b/bahan/Waktu Penelitian Skripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsiku\bahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25545793-2168-40AE-9FCA-A5B41590E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583668D-A293-4817-A7CF-A2FF155A6418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BAE0A1F-66FB-48B0-AB2C-9FBD1839ED00}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t xml:space="preserve">WAKTU PENELITIAN </t>
   </si>
@@ -52,27 +52,6 @@
     <t>Sidang Skripsi</t>
   </si>
   <si>
-    <t>November 2021</t>
-  </si>
-  <si>
-    <t>Desember 2021</t>
-  </si>
-  <si>
-    <t>Januari 2022</t>
-  </si>
-  <si>
-    <t>Februari 2022</t>
-  </si>
-  <si>
-    <t>Maret 2022</t>
-  </si>
-  <si>
-    <t>April 2022</t>
-  </si>
-  <si>
-    <t>Mei 2022</t>
-  </si>
-  <si>
     <t>Identifikasi masalalah</t>
   </si>
   <si>
@@ -97,7 +76,37 @@
     <t>Penyelesian Skripsi &amp; Aplikasi</t>
   </si>
   <si>
-    <t>Juni 2022</t>
+    <t xml:space="preserve">November </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2021</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januari </t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -224,9 +233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -250,10 +256,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,149 +586,165 @@
   <dimension ref="A3:AH27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="3.6328125" customWidth="1"/>
+    <col min="3" max="34" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
       <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="11"/>
+      <c r="W5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -812,14 +843,14 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -852,25 +883,25 @@
       <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -892,20 +923,20 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -932,11 +963,11 @@
       <c r="AH10" s="1"/>
     </row>
     <row r="11" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -953,18 +984,18 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -972,11 +1003,11 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -993,18 +1024,18 @@
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -1012,11 +1043,11 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1044,33 +1075,33 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -1092,7 +1123,7 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1111,8 +1142,8 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
@@ -1132,7 +1163,7 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1154,29 +1185,29 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1194,25 +1225,25 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
     <row r="18" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1248,8 +1279,8 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1261,10 +1292,17 @@
     <row r="26" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:34" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
     <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="C5:AH5"/>
     <mergeCell ref="A3:AH3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="S5:V5"/>
     <mergeCell ref="W6:Z6"/>
     <mergeCell ref="AA6:AD6"/>
     <mergeCell ref="B5:B7"/>
